--- a/DataAnalysis/FrequencyDrift2021-07-22trial7.xlsx
+++ b/DataAnalysis/FrequencyDrift2021-07-22trial7.xlsx
@@ -8,18 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlottezehnder/Documents/Academic/Summer 2021 Phys REU/laserStabilization/DataAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{59D719F6-207E-1441-BC2A-918D09BA0BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7FFCDF18-C1F3-054C-9DEB-AD33E893A675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="1460" windowWidth="27240" windowHeight="15740"/>
+    <workbookView xWindow="10780" yWindow="460" windowWidth="27240" windowHeight="15740"/>
   </bookViews>
   <sheets>
     <sheet name="FrequencyDrift2021-07-22trial7" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'FrequencyDrift2021-07-22trial7'!$A$7:$A$66</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'FrequencyDrift2021-07-22trial7'!$B$6</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'FrequencyDrift2021-07-22trial7'!$B$7:$B$66</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -669,6 +664,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12518438320209974"/>
+                  <c:y val="-0.23672462817147857"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'FrequencyDrift2021-07-22trial7'!$A$7:$A$186</c:f>
@@ -4057,6 +4102,1434 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'FrequencyDrift2021-07-22trial7'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Active Current (mA)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.7430196003873209E-2"/>
+                  <c:y val="-7.1587408304945394E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'FrequencyDrift2021-07-22trial7'!$B$7:$B$186</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="180"/>
+                <c:pt idx="0">
+                  <c:v>-7.9433838129066101E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.3362893567372401E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.8690314853897899E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.40177361404234E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.3451574269489595E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.5416101988642703E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.6725787134744802E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-7.4761259415591702E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.1398365848219297E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.0088680702117198E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.6725787134744802E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-7.0088680702117198E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.80354722808468E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.02796731696438E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.80354722808468E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-8.8778995556015108E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.5416101988642703E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-7.9433838129066101E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-7.9433838129066101E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-5.6070944561693696E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-7.4761259415591702E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-9.3451574269489603E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-8.8778995556015108E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7.0088680702117198E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-6.07435232751682E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-6.07435232751682E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4.6725787134744802E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.80354722808468E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-4.2053208421270298E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-9.8124152982964098E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-6.07435232751682E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-4.6725787134744802E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-7.9433838129066101E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-8.8778995556015108E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-2.3362893567372401E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3.7380629707795799E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-6.07435232751682E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-7.4761259415591702E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-5.6070944561693696E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-8.8778995556015108E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-6.07435232751682E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-8.8778995556015108E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-7.4761259415591702E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-6.5416101988642703E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-7.4761259415591702E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-4.2053208421270298E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-4.6725787134744802E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-4.6725787134744802E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-6.5416101988642703E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-7.0088680702117198E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-5.1398365848219297E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.6725787134744797E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-3.27080509943213E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-4.2053208421270298E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.07435232751682E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-3.27080509943213E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-4.2053208421270298E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.7380629707795799E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.7380629707795799E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1.8690314853897899E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.3362893567372401E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-3.7380629707795799E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.2053208421270298E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.80354722808468E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-3.27080509943213E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.3362893567372401E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-3.27080509943213E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.2053208421270298E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-1.8690314853897899E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-1.40177361404234E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.80354722808468E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.1398365848219297E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.6725787134744797E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.1398365848219297E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.80354722808468E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.7380629707795799E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.80354722808468E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.1398365848219297E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.1398365848219297E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.6725787134744797E-4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.3362893567372401E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.80354722808468E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.3362893567372401E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.6070944561693696E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.80354722808468E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.3362893567372401E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.07435232751682E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3362893567372401E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.6725787134744797E-4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.6725787134744797E-4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.6725787134744797E-4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.6070944561693696E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.27080509943213E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.1398365848219297E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.7380629707795799E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.6725787134744802E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8.8778995556015108E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3.7380629707795799E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.07469310409913E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.27080509943213E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.7380629707795799E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>7.9433838129066101E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>8.4106416842540596E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.21487046550336E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>6.07435232751682E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.1681446783686201E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>8.8778995556015108E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9.3451574269489603E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9.3451574269489603E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.3083220397728501E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.02796731696438E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9.8124152982964098E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>8.4106416842540596E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.1681446783686201E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.1214188912338699E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.5886767625813199E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.2615962526380999E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>9.8124152982964098E-3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.35504782690759E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.49522518831183E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.7288541239855501E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.21487046550336E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.2615962526380999E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.40177361404234E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.49522518831183E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.4484994011770801E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.82230569825504E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.54195097544657E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.3083220397728501E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.7755799111203001E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.40177361404234E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2.14938620819826E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.5886767625813199E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.2895635696024898E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.5231925052762099E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.7755799111203001E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.9624830596592799E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.6166440795457001E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.9624830596592799E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.14938620819826E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.1961119953329999E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.2895635696024898E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2.3362893567372402E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.8969988023541698E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3.1306277380279003E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2.8035472280846799E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2.3830151438719801E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3.1773535251626399E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3.5044340351058599E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3.2708050994321301E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3.08390195089315E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2.9904503766236601E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3.2240793122973899E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3.1306277380279003E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3.4577082479711099E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3.6913371836448397E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3.5978856093753502E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3.2240793122973899E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3.3175308865668801E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3.3175308865668801E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3.5978856093753502E-2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3.5978856093753502E-2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3.5978856093753502E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3.6446113965100897E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>4.4856755649354998E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>5.0931107976871802E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>5.1398365848219198E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>4.6258529263397297E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>4.5791271392049901E-2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>5.1865623719566697E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>4.7660302877439699E-2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>4.6725787134744803E-2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>5.1398365848219198E-2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>5.28001394622616E-2</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>4.99965922341769E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'FrequencyDrift2021-07-22trial7'!$C$7:$C$186</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="180"/>
+                <c:pt idx="0">
+                  <c:v>127.679472817133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127.679472817133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127.68790774299799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>127.696342668863</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127.704777594728</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127.662602965403</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>127.671037891268</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>127.679472817133</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>127.671037891268</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>127.662602965403</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>127.65416803953801</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>127.671037891268</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>127.679472817133</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>127.662602965403</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>127.68790774299799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>127.679472817133</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>127.704777594728</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>127.671037891268</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>127.704777594728</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>127.671037891268</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>127.704777594728</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>127.679472817133</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>127.696342668863</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>127.65416803953801</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>127.679472817133</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>127.679472817133</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>127.68790774299799</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>127.704777594728</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>127.679472817133</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>127.713212520593</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>127.68790774299799</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>127.696342668863</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>127.704777594728</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>127.679472817133</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>127.696342668863</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>127.704777594728</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>127.671037891268</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>127.671037891268</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>127.721647446457</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>127.671037891268</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>127.65416803953801</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>127.679472817133</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>127.65416803953801</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>127.696342668863</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>127.679472817133</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>127.696342668863</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>127.713212520593</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>127.713212520593</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>127.704777594728</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>127.68790774299799</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>127.704777594728</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>127.679472817133</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>127.68790774299799</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>127.696342668863</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>127.704777594728</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>127.713212520593</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>127.696342668863</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>127.713212520593</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>127.696342668863</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>127.704777594728</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>127.73851729818701</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>127.68790774299799</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>127.704777594728</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>127.72164744645799</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>127.713212520593</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>127.72164744645799</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>127.713212520593</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>127.704777594728</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>127.713212520593</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>127.730082372322</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>127.704777594728</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>127.696342668863</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>127.696342668863</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>127.704777594728</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>127.696342668863</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>127.704777594728</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>127.704777594728</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>127.679472817133</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>127.68790774299799</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>127.68790774299799</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>127.704777594728</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>127.72164744645799</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>127.671037891268</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>127.713212520593</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>127.72164744645799</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>127.72164744645799</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>127.730082372322</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>127.696342668863</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>127.746952224052</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>127.704777594728</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>127.713212520593</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>127.704777594728</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>127.730082372322</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>127.68790774299799</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>127.730082372322</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>127.730082372322</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>127.721647446457</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>127.72164744645799</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>127.721647446457</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>127.713212520593</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>127.730082372322</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>127.730082372322</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>127.730082372322</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>127.704777594728</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>127.696342668863</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>127.73851729818701</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>127.730082372322</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>127.721647446457</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>127.730082372322</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>127.704777594728</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>127.721647446457</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>127.730082372322</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>127.73851729818701</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>127.746952224052</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>127.713212520593</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>127.730082372322</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>127.73851729818701</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>127.730082372322</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>127.721647446457</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>127.746952224052</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>127.713212520593</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>127.704777594728</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>127.730082372322</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>127.746952224052</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>127.746952224052</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>127.73851729818701</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127.73851729818701</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127.72164744645799</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>127.746952224052</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>127.755387149917</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>127.746952224052</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>127.730082372322</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>127.746952224052</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>127.730082372322</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>127.755387149917</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>127.73851729818701</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>127.755387149917</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>127.746952224052</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>127.73851729818701</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>127.755387149917</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>127.763822075782</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>127.72164744645799</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>127.746952224052</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>127.746952224052</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>127.763822075782</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>127.746952224052</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>127.746952224052</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>127.721647446457</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>127.73851729818701</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>127.763822075782</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>127.77225700164701</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>127.730082372322</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>127.763822075782</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>127.77225700164701</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>127.721647446457</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>127.755387149917</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>127.780691927512</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>127.755387149917</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>127.80599670510701</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>127.746952224052</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>127.755387149917</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>127.730082372322</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>127.73851729818701</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>127.746952224052</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>127.763822075782</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>127.763822075782</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>127.77225700164701</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>127.763822075782</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>127.763822075782</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>127.755387149917</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>127.77225700164701</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>127.763822075782</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>127.746952224052</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>127.755387149917</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>127.797561779242</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>127.763822075782</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>127.789126853377</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>127.789126853377</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>127.780691927512</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>127.789126853377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-728B-8D42-8621-77E8579489F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1789724848"/>
+        <c:axId val="1749408640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1789724848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1749408640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1749408640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1789724848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4177,6 +5650,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5210,6 +6723,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5830,6 +7859,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>762001</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>29536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>707870</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>62460</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9A167A8-5269-8E41-B0D5-D01628683A02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6137,8 +8202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:N186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
